--- a/code/tables/comparison_Our_NBC_Library_NBC_loan_approval.xlsx
+++ b/code/tables/comparison_Our_NBC_Library_NBC_loan_approval.xlsx
@@ -480,10 +480,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E2" t="n">
         <v>0.01</v>
@@ -505,10 +505,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E3" t="n">
         <v>0.01</v>
